--- a/source/_drafts/SpringCloud/计划表.xlsx
+++ b/source/_drafts/SpringCloud/计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="30180" yWindow="460" windowWidth="18400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,245 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Eureka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务治理（注册发现）</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'li</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'ce</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fa'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ribbon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端负载均衡</t>
+    <rPh sb="0" eb="1">
+      <t>ke'hu'duan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'zai'jun'heng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hystrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务熔断保护</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rong'duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bao'hu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声明式服务调用</t>
+    <rPh sb="0" eb="1">
+      <t>sheng'ming</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>diao'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zuul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 网管服务</t>
+    <rPh sb="4" eb="5">
+      <t>wang'guan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式配置中心</t>
+    <rPh sb="0" eb="1">
+      <t>fen'bu'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhong'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息总线</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息驱动的微服务</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu'dong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wei'fu'wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式服务跟踪</t>
+    <rPh sb="0" eb="1">
+      <t>fen'bu'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gen'zong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archaius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理API</t>
+    <rPh sb="0" eb="1">
+      <t>pei'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <rPh sb="0" eb="1">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Foundry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudFoundry是VMware推出的开源PaaS云平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据操作工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zookeeper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turbine是聚合服务器发送事件流数据的一个工具，用来监控集群下hystrix的metrics情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供云端计划任务管理、任务调度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connectors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供Leadership选举，如：Zookeeper, Redis, Hazelcast, Consul等常见状态模式的抽象和实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便于云端应用程序在各种PaaS平台连接到后端，如：数据库和消息代理服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,12 +583,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/_drafts/SpringCloud/计划表.xlsx
+++ b/source/_drafts/SpringCloud/计划表.xlsx
@@ -586,7 +586,7 @@
   <dimension ref="A2:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/_drafts/SpringCloud/计划表.xlsx
+++ b/source/_drafts/SpringCloud/计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="460" windowWidth="18400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="18460" yWindow="460" windowWidth="18400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>Eureka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务治理（注册发现）</t>
     <rPh sb="0" eb="1">
       <t>fu'wu</t>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>便于云端应用程序在各种PaaS平台连接到后端，如：数据库和消息代理服务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eureka</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +586,7 @@
   <dimension ref="A2:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,148 +597,148 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
         <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
         <v>25</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
         <v>23</v>
-      </c>
-      <c r="B44" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
